--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H2">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I2">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J2">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1444536666666666</v>
+        <v>0.02179466666666667</v>
       </c>
       <c r="N2">
-        <v>0.4333609999999999</v>
+        <v>0.065384</v>
       </c>
       <c r="O2">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="P2">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="Q2">
-        <v>3.956343103386333</v>
+        <v>1.005128849276445</v>
       </c>
       <c r="R2">
-        <v>35.60708793047699</v>
+        <v>9.046159643488</v>
       </c>
       <c r="S2">
-        <v>0.2989455981514273</v>
+        <v>0.06370637385397533</v>
       </c>
       <c r="T2">
-        <v>0.2989455981514273</v>
+        <v>0.06370637385397533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H3">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I3">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J3">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2375286666666666</v>
+        <v>0.2375286666666667</v>
       </c>
       <c r="N3">
-        <v>0.7125859999999999</v>
+        <v>0.7125860000000001</v>
       </c>
       <c r="O3">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="P3">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="Q3">
-        <v>6.505510894311333</v>
+        <v>10.95437333583911</v>
       </c>
       <c r="R3">
-        <v>58.549598048802</v>
+        <v>98.589360022552</v>
       </c>
       <c r="S3">
-        <v>0.4915634955714357</v>
+        <v>0.6943024305504233</v>
       </c>
       <c r="T3">
-        <v>0.4915634955714358</v>
+        <v>0.6943024305504232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H4">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I4">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J4">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.206244</v>
       </c>
       <c r="O4">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774766</v>
       </c>
       <c r="P4">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774767</v>
       </c>
       <c r="Q4">
-        <v>1.882892154612</v>
+        <v>3.170527872112</v>
       </c>
       <c r="R4">
-        <v>16.946029391508</v>
+        <v>28.534750849008</v>
       </c>
       <c r="S4">
-        <v>0.1422733839573542</v>
+        <v>0.2009521804897114</v>
       </c>
       <c r="T4">
-        <v>0.1422733839573542</v>
+        <v>0.2009521804897114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.403932</v>
       </c>
       <c r="I5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1444536666666666</v>
+        <v>0.02179466666666667</v>
       </c>
       <c r="N5">
-        <v>0.4333609999999999</v>
+        <v>0.065384</v>
       </c>
       <c r="O5">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="P5">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="Q5">
-        <v>0.01944981949466667</v>
+        <v>0.002934521098666666</v>
       </c>
       <c r="R5">
-        <v>0.175048375452</v>
+        <v>0.026410689888</v>
       </c>
       <c r="S5">
-        <v>0.001469649565477194</v>
+        <v>0.0001859937642110401</v>
       </c>
       <c r="T5">
-        <v>0.001469649565477194</v>
+        <v>0.0001859937642110401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.403932</v>
       </c>
       <c r="I6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2375286666666666</v>
+        <v>0.2375286666666667</v>
       </c>
       <c r="N6">
-        <v>0.7125859999999999</v>
+        <v>0.7125860000000001</v>
       </c>
       <c r="O6">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="P6">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="Q6">
         <v>0.03198180979466667</v>
@@ -818,10 +818,10 @@
         <v>0.287836288152</v>
       </c>
       <c r="S6">
-        <v>0.002416580415093033</v>
+        <v>0.002027048704026799</v>
       </c>
       <c r="T6">
-        <v>0.002416580415093033</v>
+        <v>0.002027048704026799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.403932</v>
       </c>
       <c r="I7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.206244</v>
       </c>
       <c r="O7">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774766</v>
       </c>
       <c r="P7">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774767</v>
       </c>
       <c r="Q7">
-        <v>0.009256505712000001</v>
+        <v>0.009256505711999999</v>
       </c>
       <c r="R7">
-        <v>0.083308551408</v>
+        <v>0.08330855140799999</v>
       </c>
       <c r="S7">
-        <v>0.0006994316631683019</v>
+        <v>0.0005866893721084937</v>
       </c>
       <c r="T7">
-        <v>0.0006994316631683019</v>
+        <v>0.0005866893721084938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.516982</v>
       </c>
       <c r="I8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1444536666666666</v>
+        <v>0.02179466666666667</v>
       </c>
       <c r="N8">
-        <v>0.4333609999999999</v>
+        <v>0.065384</v>
       </c>
       <c r="O8">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="P8">
-        <v>0.320488007981121</v>
+        <v>0.06643270670809397</v>
       </c>
       <c r="Q8">
-        <v>0.265649426278</v>
+        <v>0.04008026123200001</v>
       </c>
       <c r="R8">
-        <v>2.390844836502</v>
+        <v>0.360722351088</v>
       </c>
       <c r="S8">
-        <v>0.0200727602642165</v>
+        <v>0.00254033908990759</v>
       </c>
       <c r="T8">
-        <v>0.0200727602642165</v>
+        <v>0.00254033908990759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.516982</v>
       </c>
       <c r="I9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2375286666666666</v>
+        <v>0.2375286666666667</v>
       </c>
       <c r="N9">
-        <v>0.7125859999999999</v>
+        <v>0.7125860000000001</v>
       </c>
       <c r="O9">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="P9">
-        <v>0.5269862023930051</v>
+        <v>0.7240153056144294</v>
       </c>
       <c r="Q9">
-        <v>0.436813792828</v>
+        <v>0.4368137928280001</v>
       </c>
       <c r="R9">
-        <v>3.931324135452</v>
+        <v>3.931324135452001</v>
       </c>
       <c r="S9">
-        <v>0.03300612640647631</v>
+        <v>0.02768582635997936</v>
       </c>
       <c r="T9">
-        <v>0.03300612640647631</v>
+        <v>0.02768582635997936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.516982</v>
       </c>
       <c r="I10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.206244</v>
       </c>
       <c r="O10">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774766</v>
       </c>
       <c r="P10">
-        <v>0.1525257896258739</v>
+        <v>0.2095519876774767</v>
       </c>
       <c r="Q10">
         <v>0.126427159512</v>
@@ -1066,10 +1066,10 @@
         <v>1.137844435608</v>
       </c>
       <c r="S10">
-        <v>0.009552974005351357</v>
+        <v>0.008013117815656751</v>
       </c>
       <c r="T10">
-        <v>0.009552974005351357</v>
+        <v>0.008013117815656752</v>
       </c>
     </row>
   </sheetData>
